--- a/data/trans_media/IQ39A-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ39A-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,28; 39,36</t>
+          <t>35,07; 39,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 38,76</t>
+          <t>35,05; 38,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,14; 39,96</t>
+          <t>34,89; 39,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,1; 39,97</t>
+          <t>36,21; 40,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,38</t>
+          <t>36,95; 40,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,29; 37,79</t>
+          <t>33,3; 37,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,41; 39,14</t>
+          <t>36,43; 39,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,54; 39,06</t>
+          <t>36,51; 38,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,81; 38,41</t>
+          <t>34,9; 38,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,32; 39,12</t>
+          <t>25,0; 39,12</t>
         </is>
       </c>
     </row>
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,6; 40,83</t>
+          <t>38,68; 40,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,31; 39,54</t>
+          <t>36,32; 39,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,59; 39,33</t>
+          <t>36,56; 39,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,72; 43,51</t>
+          <t>34,43; 43,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,17; 40,62</t>
+          <t>38,2; 40,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,0; 38,15</t>
+          <t>35,09; 38,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,63; 38,62</t>
+          <t>35,64; 38,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,25; 38,55</t>
+          <t>36,22; 38,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,54; 38,48</t>
+          <t>36,59; 38,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 42,5</t>
+          <t>33,88; 41,7</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,5; 39,3</t>
+          <t>35,43; 39,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,83; 39,82</t>
+          <t>35,87; 39,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,05; 39,51</t>
+          <t>35,94; 39,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,16; 40,72</t>
+          <t>36,33; 40,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,79; 38,97</t>
+          <t>34,97; 39,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,26; 37,99</t>
+          <t>34,26; 38,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,0; 40,0</t>
+          <t>35,96; 40,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,49; 39,25</t>
+          <t>36,43; 39,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 38,9</t>
+          <t>36,0; 38,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,76; 38,38</t>
+          <t>35,63; 38,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,67; 40,0</t>
+          <t>37,0; 40,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,39; 41,25</t>
+          <t>38,49; 41,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,09; 40,82</t>
+          <t>36,12; 40,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,04; 39,1</t>
+          <t>34,89; 39,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 40,78</t>
+          <t>20,62; 40,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,79; 42,27</t>
+          <t>38,77; 42,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,26; 39,77</t>
+          <t>36,4; 39,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 40,92</t>
+          <t>36,56; 41,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 40,0</t>
+          <t>16,22; 40,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,14; 41,29</t>
+          <t>39,16; 41,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,04; 39,84</t>
+          <t>36,99; 39,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,46; 39,47</t>
+          <t>36,36; 39,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,46; 38,54</t>
+          <t>24,15; 38,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,18; 39,69</t>
+          <t>38,07; 39,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,94; 38,86</t>
+          <t>36,96; 38,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,69; 38,55</t>
+          <t>36,77; 38,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,31; 40,3</t>
+          <t>27,52; 40,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,63; 40,31</t>
+          <t>38,58; 40,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,67; 38,39</t>
+          <t>36,64; 38,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,1; 38,03</t>
+          <t>36,12; 38,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,83; 37,82</t>
+          <t>28,37; 38,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,63; 39,73</t>
+          <t>38,62; 39,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,12; 38,39</t>
+          <t>37,05; 38,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,71; 37,98</t>
+          <t>36,7; 37,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,46; 38,78</t>
+          <t>30,27; 38,51</t>
         </is>
       </c>
     </row>
